--- a/medicine/Psychotrope/Château_de_l'Oiselinière/Château_de_l'Oiselinière.xlsx
+++ b/medicine/Psychotrope/Château_de_l'Oiselinière/Château_de_l'Oiselinière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_l%27Oiselini%C3%A8re</t>
+          <t>Château_de_l'Oiselinière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de l’Oiselinière est un domaine viticole situé sur la commune de Gorges.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_l%27Oiselini%C3%A8re</t>
+          <t>Château_de_l'Oiselinière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La propriété de l’Oiselinière était avant la Révolution française une seigneurie. Elle est signalée dans « les Actes » du chartrier déjà depuis 1335 et elle s’étendait sur les communes de Gorges et de Clisson, et relevait féodalement des seigneurs de Clisson et du Pallet.
 Durant 643 ans, cette seigneurie ne change que quatre fois de propriétaires : c’est Maurice le Meignen qui en est le premier propriétaire connu, puis en 1460, l’un de ses descendants par alliance, Claude Grézeau. Sa famille vend la seigneurie à Jean Goulet de la Fosse de Nantes en 1613. Vient ensuite par acquisition Louis de La Bourdonnaye en 1658. Puis en 1767, vente de la seigneurie aux ancêtres de la famille Aulanier. En 2006, Georges Verdier et sa famille se portent acquéreurs et deviennent propriétaires du château de l'Oiselinière.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_l%27Oiselini%C3%A8re</t>
+          <t>Château_de_l'Oiselinière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,11 +563,13 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habitation est une villa à l'italienne construite de 1822 et 1835 sur une cour entourée de communs construits en 1800 par Jean-Baptiste Bertrand-Geslin, futur maire de Nantes. La villa, les communs et l'orangerie sont inscrits aux monuments historiques par arrêté du 14 novembre 1997.
 Le parc a été aménagé de 1807 et 1809.
-La galerie des Illustres est composée de bustes d'hommes illustres, probablement sculptés par Debay[1].
+La galerie des Illustres est composée de bustes d'hommes illustres, probablement sculptés par Debay.
 </t>
         </is>
       </c>
